--- a/Fipe_temp_teste0.xlsx
+++ b/Fipe_temp_teste0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="141">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -49,6 +49,9 @@
     <t>JPX</t>
   </si>
   <si>
+    <t>Kia Motors</t>
+  </si>
+  <si>
     <t>Wrangler Unlimited 80 Anos 2.0 TB 4p</t>
   </si>
   <si>
@@ -133,6 +136,30 @@
     <t>Jipe Montez Std 4x4 Teto Rígido Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>Picape Montez 1.9 4x4 Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>Besta EST 2.7 Diesel (10/12lug.)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
     <t>2021 Gasolina</t>
   </si>
   <si>
@@ -283,6 +310,21 @@
     <t>1994 Diesel</t>
   </si>
   <si>
+    <t>Zero KM a Diesel</t>
+  </si>
+  <si>
+    <t>2025 Diesel</t>
+  </si>
+  <si>
+    <t>2024 Diesel</t>
+  </si>
+  <si>
+    <t>2023 Diesel</t>
+  </si>
+  <si>
+    <t>1993 Diesel</t>
+  </si>
+  <si>
     <t>017079-8</t>
   </si>
   <si>
@@ -367,7 +409,31 @@
     <t>032005-6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 17200.00</t>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>032003-0</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>018002-5</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 477381.00</t>
   </si>
   <si>
     <t>julho de 2025</t>
@@ -728,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,19 +825,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>325283</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -779,19 +845,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>11085</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -799,19 +865,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>414088</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -819,19 +885,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="E5">
         <v>10355</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -839,19 +905,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>387881</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -859,19 +925,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>25371</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -879,19 +945,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <v>366715</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -899,19 +965,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E9">
         <v>22557</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -919,19 +985,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <v>265451</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -939,19 +1005,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>21211</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -959,19 +1025,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>181237</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -979,19 +1045,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E13">
         <v>19064</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -999,19 +1065,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>252007</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1019,19 +1085,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>18248</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1039,19 +1105,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>245860</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1059,19 +1125,19 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>16265</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1079,19 +1145,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E18">
         <v>235662</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1099,19 +1165,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>14787</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1119,19 +1185,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>220961</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1139,19 +1205,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>14204</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1159,19 +1225,19 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>202398</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1179,19 +1245,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>40950</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1199,19 +1265,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>183854</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1219,19 +1285,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E25">
         <v>39510</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1239,19 +1305,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E26">
         <v>182276</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1259,19 +1325,19 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E27">
         <v>38197</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1279,19 +1345,19 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E28">
         <v>161947</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1299,19 +1365,19 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E29">
         <v>36501</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1319,19 +1385,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>140919</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1339,19 +1405,19 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E31">
         <v>33363</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1359,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>41317</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1379,19 +1445,19 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E33">
         <v>48202</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1399,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>37692</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1419,19 +1485,19 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E35">
         <v>45157</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1439,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>36712</v>
       </c>
       <c r="F36" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1459,19 +1525,19 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>44055</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1479,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>28445</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1499,19 +1565,19 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>36719</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1519,19 +1585,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>26834</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1539,19 +1605,19 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>108433</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1559,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>23054</v>
       </c>
       <c r="F42" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1579,19 +1645,19 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>102354</v>
       </c>
       <c r="F43" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1599,19 +1665,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>22491</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1619,19 +1685,19 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>94712</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1639,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>41712</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1659,19 +1725,19 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>92401</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1679,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E48">
         <v>38647</v>
       </c>
       <c r="F48" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1699,19 +1765,19 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>77055</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1719,19 +1785,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>37704</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1739,19 +1805,19 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E51">
         <v>64667</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1759,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>30586</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1779,19 +1845,19 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E53">
         <v>50804</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1799,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E54">
         <v>29840</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1819,19 +1885,19 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E55">
         <v>45474</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1839,19 +1905,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E56">
         <v>27111</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1859,19 +1925,19 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>118283</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1879,19 +1945,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E58">
         <v>24891</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1899,19 +1965,19 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E59">
         <v>109203</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1919,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E60">
         <v>29612</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1939,19 +2005,19 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>105729</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1959,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>23837</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1979,19 +2045,19 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E63">
         <v>98556</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1999,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E64">
         <v>22656</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2019,19 +2085,19 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E65">
         <v>79061</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2039,19 +2105,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E66">
         <v>22032</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2059,19 +2125,19 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E67">
         <v>67735</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2079,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E68">
         <v>41256</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2099,19 +2165,19 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E69">
         <v>56900</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2119,19 +2185,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E70">
         <v>38882</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2139,19 +2205,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E71">
         <v>33466</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2159,19 +2225,19 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E72">
         <v>52174</v>
       </c>
       <c r="F72" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2179,19 +2245,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E73">
         <v>32153</v>
       </c>
       <c r="F73" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2199,19 +2265,19 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="E74">
         <v>49724</v>
       </c>
       <c r="F74" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2219,19 +2285,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E75">
         <v>25735</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2239,19 +2305,19 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E76">
         <v>109874</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2259,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E77">
         <v>22944</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2279,19 +2345,19 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E78">
         <v>102826</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2299,19 +2365,19 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <v>95690</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2319,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E80">
         <v>22384</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2339,19 +2405,19 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E81">
         <v>90144</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2359,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E82">
         <v>39901</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2379,19 +2445,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E83">
         <v>38927</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2399,19 +2465,19 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E84">
         <v>76574</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2419,19 +2485,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E85">
         <v>37977</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2439,19 +2505,19 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E86">
         <v>61514</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2459,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E87">
         <v>31729</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2479,19 +2545,19 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E88">
         <v>52459</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2499,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E89">
         <v>28811</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2519,19 +2585,19 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>47740</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2539,19 +2605,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E91">
         <v>41682</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2559,19 +2625,19 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>123406</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2579,19 +2645,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <v>40563</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2599,19 +2665,19 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <v>116775</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2619,19 +2685,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E95">
         <v>35501</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2639,19 +2705,19 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E96">
         <v>110030</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2659,19 +2725,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E97">
         <v>33572</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2679,19 +2745,19 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E98">
         <v>107346</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2699,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E99">
         <v>29010</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2719,19 +2785,19 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E100">
         <v>87759</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2739,19 +2805,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E101">
         <v>28302</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2759,19 +2825,19 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E102">
         <v>69137</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2779,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E103">
         <v>27191</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2799,19 +2865,19 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E104">
         <v>60104</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2819,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E105">
         <v>23590</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2839,19 +2905,19 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E106">
         <v>56982</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2859,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E107">
         <v>39357</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2879,19 +2945,19 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E108">
         <v>342134</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2899,19 +2965,19 @@
         <v>8</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E109">
         <v>35268</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2919,19 +2985,19 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E110">
         <v>322770</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2939,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E111">
         <v>34407</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2959,19 +3025,19 @@
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D112" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E112">
         <v>309139</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2979,19 +3045,19 @@
         <v>8</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E113">
         <v>32393</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2999,19 +3065,19 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D114" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E114">
         <v>232606</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3019,19 +3085,19 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E115">
         <v>25816</v>
       </c>
       <c r="F115" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3039,19 +3105,19 @@
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E116">
         <v>189683</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3059,19 +3125,19 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D117" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E117">
         <v>42435</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3079,19 +3145,19 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E118">
         <v>150899</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3099,19 +3165,19 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D119" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E119">
         <v>17823</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3119,19 +3185,19 @@
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D120" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E120">
         <v>130163</v>
       </c>
       <c r="F120" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3139,19 +3205,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D121" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E121">
         <v>17172</v>
       </c>
       <c r="F121" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3159,19 +3225,19 @@
         <v>10</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E122">
         <v>16140</v>
       </c>
       <c r="F122" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3179,19 +3245,19 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D123" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E123">
         <v>126225</v>
       </c>
       <c r="F123" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3199,19 +3265,19 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D124" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E124">
         <v>15717</v>
       </c>
       <c r="F124" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3219,19 +3285,19 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D125" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E125">
         <v>119587</v>
       </c>
       <c r="F125" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3239,19 +3305,19 @@
         <v>10</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E126">
         <v>15333</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3259,19 +3325,19 @@
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D127" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E127">
         <v>109379</v>
       </c>
       <c r="F127" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3279,19 +3345,19 @@
         <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D128" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E128">
         <v>14959</v>
       </c>
       <c r="F128" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3299,19 +3365,19 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E129">
         <v>102192</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3319,19 +3385,19 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D130" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E130">
         <v>14594</v>
       </c>
       <c r="F130" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3339,19 +3405,19 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D131" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E131">
         <v>89010</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3359,19 +3425,19 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E132">
         <v>12594</v>
       </c>
       <c r="F132" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3379,19 +3445,19 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E133">
         <v>37684</v>
       </c>
       <c r="F133" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3399,19 +3465,19 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E134">
         <v>71366</v>
       </c>
       <c r="F134" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3419,19 +3485,19 @@
         <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D135" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E135">
         <v>36764</v>
       </c>
       <c r="F135" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3439,19 +3505,19 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C136" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D136" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E136">
         <v>66010</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3459,19 +3525,19 @@
         <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E137">
         <v>35867</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3479,19 +3545,19 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D138" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E138">
         <v>34992</v>
       </c>
       <c r="F138" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3499,19 +3565,19 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D139" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E139">
         <v>62148</v>
       </c>
       <c r="F139" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3519,19 +3585,19 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D140" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E140">
         <v>318827</v>
       </c>
       <c r="F140" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3539,19 +3605,19 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D141" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E141">
         <v>34138</v>
       </c>
       <c r="F141" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3559,19 +3625,19 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E142">
         <v>295463</v>
       </c>
       <c r="F142" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3579,19 +3645,19 @@
         <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D143" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E143">
         <v>33305</v>
       </c>
       <c r="F143" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3599,19 +3665,19 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D144" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E144">
         <v>272197</v>
       </c>
       <c r="F144" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3619,19 +3685,19 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D145" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E145">
         <v>32160</v>
       </c>
       <c r="F145" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3639,19 +3705,19 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D146" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E146">
         <v>218619</v>
       </c>
       <c r="F146" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3659,19 +3725,19 @@
         <v>10</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D147" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E147">
         <v>29661</v>
       </c>
       <c r="F147" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3679,19 +3745,19 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D148" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E148">
         <v>182636</v>
       </c>
       <c r="F148" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3699,19 +3765,19 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D149" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E149">
         <v>17747</v>
       </c>
       <c r="F149" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3719,19 +3785,19 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D150" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E150">
         <v>143047</v>
       </c>
       <c r="F150" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3739,19 +3805,19 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E151">
         <v>16745</v>
       </c>
       <c r="F151" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3759,19 +3825,19 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D152" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E152">
         <v>127425</v>
       </c>
       <c r="F152" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3779,19 +3845,19 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E153">
         <v>15777</v>
       </c>
       <c r="F153" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3799,19 +3865,19 @@
         <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D154" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E154">
         <v>14544</v>
       </c>
       <c r="F154" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3819,19 +3885,19 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E155">
         <v>117058</v>
       </c>
       <c r="F155" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3839,19 +3905,19 @@
         <v>10</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E156">
         <v>14146</v>
       </c>
       <c r="F156" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3859,19 +3925,19 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D157" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E157">
         <v>107593</v>
       </c>
       <c r="F157" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3879,19 +3945,19 @@
         <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D158" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E158">
         <v>13761</v>
       </c>
       <c r="F158" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3899,19 +3965,19 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C159" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D159" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E159">
         <v>98963</v>
       </c>
       <c r="F159" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3919,19 +3985,19 @@
         <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D160" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E160">
         <v>12202</v>
       </c>
       <c r="F160" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3939,19 +4005,19 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C161" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D161" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E161">
         <v>92246</v>
       </c>
       <c r="F161" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3959,19 +4025,19 @@
         <v>10</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D162" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E162">
         <v>11486</v>
       </c>
       <c r="F162" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3979,19 +4045,19 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D163" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E163">
         <v>85723</v>
       </c>
       <c r="F163" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3999,19 +4065,19 @@
         <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D164" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E164">
         <v>19462</v>
       </c>
       <c r="F164" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4019,19 +4085,19 @@
         <v>10</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E165">
         <v>18987</v>
       </c>
       <c r="F165" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4039,19 +4105,19 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C166" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D166" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E166">
         <v>65763</v>
       </c>
       <c r="F166" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4059,19 +4125,19 @@
         <v>10</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D167" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E167">
         <v>18523</v>
       </c>
       <c r="F167" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4079,19 +4145,19 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C168" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D168" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E168">
         <v>57579</v>
       </c>
       <c r="F168" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4099,19 +4165,19 @@
         <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D169" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E169">
         <v>18071</v>
       </c>
       <c r="F169" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4119,19 +4185,19 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C170" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D170" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="E170">
         <v>54398</v>
       </c>
       <c r="F170" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4139,19 +4205,19 @@
         <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D171" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E171">
         <v>17630</v>
       </c>
       <c r="F171" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4159,19 +4225,759 @@
         <v>10</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D172" t="s">
-        <v>116</v>
-      </c>
-      <c r="E172" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="E172">
+        <v>17200</v>
       </c>
       <c r="F172" t="s">
-        <v>118</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173">
+        <v>49740</v>
+      </c>
+      <c r="F173" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" t="s">
+        <v>96</v>
+      </c>
+      <c r="D174" t="s">
+        <v>130</v>
+      </c>
+      <c r="E174">
+        <v>16642</v>
+      </c>
+      <c r="F174" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" t="s">
+        <v>131</v>
+      </c>
+      <c r="E175">
+        <v>847192</v>
+      </c>
+      <c r="F175" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" t="s">
+        <v>99</v>
+      </c>
+      <c r="D176" t="s">
+        <v>131</v>
+      </c>
+      <c r="E176">
+        <v>719518</v>
+      </c>
+      <c r="F176" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" t="s">
+        <v>97</v>
+      </c>
+      <c r="D177" t="s">
+        <v>130</v>
+      </c>
+      <c r="E177">
+        <v>13994</v>
+      </c>
+      <c r="F177" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" t="s">
+        <v>100</v>
+      </c>
+      <c r="D178" t="s">
+        <v>131</v>
+      </c>
+      <c r="E178">
+        <v>667864</v>
+      </c>
+      <c r="F178" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" t="s">
+        <v>89</v>
+      </c>
+      <c r="D179" t="s">
+        <v>132</v>
+      </c>
+      <c r="E179">
+        <v>16548</v>
+      </c>
+      <c r="F179" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>41</v>
+      </c>
+      <c r="C180" t="s">
+        <v>91</v>
+      </c>
+      <c r="D180" t="s">
+        <v>132</v>
+      </c>
+      <c r="E180">
+        <v>14884</v>
+      </c>
+      <c r="F180" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" t="s">
+        <v>101</v>
+      </c>
+      <c r="D181" t="s">
+        <v>131</v>
+      </c>
+      <c r="E181">
+        <v>625121</v>
+      </c>
+      <c r="F181" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" t="s">
+        <v>133</v>
+      </c>
+      <c r="E182">
+        <v>395599</v>
+      </c>
+      <c r="F182" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>41</v>
+      </c>
+      <c r="C183" t="s">
+        <v>92</v>
+      </c>
+      <c r="D183" t="s">
+        <v>132</v>
+      </c>
+      <c r="E183">
+        <v>13448</v>
+      </c>
+      <c r="F183" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
+        <v>42</v>
+      </c>
+      <c r="C184" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184">
+        <v>370286</v>
+      </c>
+      <c r="F184" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185" t="s">
+        <v>93</v>
+      </c>
+      <c r="D185" t="s">
+        <v>132</v>
+      </c>
+      <c r="E185">
+        <v>13120</v>
+      </c>
+      <c r="F185" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" t="s">
+        <v>98</v>
+      </c>
+      <c r="D186" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186">
+        <v>763015</v>
+      </c>
+      <c r="F186" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" t="s">
+        <v>94</v>
+      </c>
+      <c r="D187" t="s">
+        <v>132</v>
+      </c>
+      <c r="E187">
+        <v>12116</v>
+      </c>
+      <c r="F187" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>99</v>
+      </c>
+      <c r="D188" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188">
+        <v>673303</v>
+      </c>
+      <c r="F188" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>41</v>
+      </c>
+      <c r="C189" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" t="s">
+        <v>132</v>
+      </c>
+      <c r="E189">
+        <v>11820</v>
+      </c>
+      <c r="F189" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>100</v>
+      </c>
+      <c r="D190" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190">
+        <v>646378</v>
+      </c>
+      <c r="F190" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>41</v>
+      </c>
+      <c r="C191" t="s">
+        <v>96</v>
+      </c>
+      <c r="D191" t="s">
+        <v>132</v>
+      </c>
+      <c r="E191">
+        <v>11184</v>
+      </c>
+      <c r="F191" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>43</v>
+      </c>
+      <c r="C192" t="s">
+        <v>101</v>
+      </c>
+      <c r="D192" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192">
+        <v>592645</v>
+      </c>
+      <c r="F192" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>41</v>
+      </c>
+      <c r="C193" t="s">
+        <v>97</v>
+      </c>
+      <c r="D193" t="s">
+        <v>132</v>
+      </c>
+      <c r="E193">
+        <v>8971</v>
+      </c>
+      <c r="F193" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C194" t="s">
+        <v>83</v>
+      </c>
+      <c r="D194" t="s">
+        <v>135</v>
+      </c>
+      <c r="E194">
+        <v>392676</v>
+      </c>
+      <c r="F194" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" t="s">
+        <v>92</v>
+      </c>
+      <c r="D195" t="s">
+        <v>136</v>
+      </c>
+      <c r="E195">
+        <v>19971</v>
+      </c>
+      <c r="F195" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
+        <v>44</v>
+      </c>
+      <c r="C196" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" t="s">
+        <v>135</v>
+      </c>
+      <c r="E196">
+        <v>366783</v>
+      </c>
+      <c r="F196" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" t="s">
+        <v>93</v>
+      </c>
+      <c r="D197" t="s">
+        <v>136</v>
+      </c>
+      <c r="E197">
+        <v>15754</v>
+      </c>
+      <c r="F197" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" t="s">
+        <v>98</v>
+      </c>
+      <c r="D198" t="s">
+        <v>137</v>
+      </c>
+      <c r="E198">
+        <v>677328</v>
+      </c>
+      <c r="F198" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" t="s">
+        <v>94</v>
+      </c>
+      <c r="D199" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199">
+        <v>14647</v>
+      </c>
+      <c r="F199" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" t="s">
+        <v>99</v>
+      </c>
+      <c r="D200" t="s">
+        <v>137</v>
+      </c>
+      <c r="E200">
+        <v>567491</v>
+      </c>
+      <c r="F200" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" t="s">
+        <v>95</v>
+      </c>
+      <c r="D201" t="s">
+        <v>136</v>
+      </c>
+      <c r="E201">
+        <v>13016</v>
+      </c>
+      <c r="F201" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
+        <v>46</v>
+      </c>
+      <c r="C202" t="s">
+        <v>100</v>
+      </c>
+      <c r="D202" t="s">
+        <v>137</v>
+      </c>
+      <c r="E202">
+        <v>517631</v>
+      </c>
+      <c r="F202" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" t="s">
+        <v>96</v>
+      </c>
+      <c r="D203" t="s">
+        <v>136</v>
+      </c>
+      <c r="E203">
+        <v>12467</v>
+      </c>
+      <c r="F203" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" t="s">
+        <v>101</v>
+      </c>
+      <c r="D204" t="s">
+        <v>137</v>
+      </c>
+      <c r="E204">
+        <v>483986</v>
+      </c>
+      <c r="F204" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
+        <v>47</v>
+      </c>
+      <c r="C205" t="s">
+        <v>98</v>
+      </c>
+      <c r="D205" t="s">
+        <v>138</v>
+      </c>
+      <c r="E205">
+        <v>604938</v>
+      </c>
+      <c r="F205" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206">
+        <v>9650</v>
+      </c>
+      <c r="F206" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>47</v>
+      </c>
+      <c r="C207" t="s">
+        <v>99</v>
+      </c>
+      <c r="D207" t="s">
+        <v>138</v>
+      </c>
+      <c r="E207">
+        <v>515947</v>
+      </c>
+      <c r="F207" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>45</v>
+      </c>
+      <c r="C208" t="s">
+        <v>102</v>
+      </c>
+      <c r="D208" t="s">
+        <v>136</v>
+      </c>
+      <c r="E208">
+        <v>9023</v>
+      </c>
+      <c r="F208" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" t="s">
+        <v>100</v>
+      </c>
+      <c r="D209" t="s">
+        <v>138</v>
+      </c>
+      <c r="E209" t="s">
+        <v>139</v>
+      </c>
+      <c r="F209" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Fipe_temp_teste0.xlsx
+++ b/Fipe_temp_teste0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="145">
   <si>
     <t>MarcaSelecionada</t>
   </si>
@@ -160,6 +160,12 @@
     <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
   </si>
   <si>
+    <t>Besta EST Full 2.7 Diesel (10/12lug.)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
     <t>2021 Gasolina</t>
   </si>
   <si>
@@ -433,7 +439,13 @@
     <t>060012-1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 477381.00</t>
+    <t>018003-3</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13625.00</t>
   </si>
   <si>
     <t>julho de 2025</t>
@@ -794,7 +806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,16 +840,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>325283</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -848,16 +860,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>11085</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -868,16 +880,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4">
         <v>414088</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -888,16 +900,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>10355</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -908,16 +920,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>387881</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -928,16 +940,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E7">
         <v>25371</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -948,16 +960,16 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>366715</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -968,16 +980,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>22557</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -988,16 +1000,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10">
         <v>265451</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1008,16 +1020,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>21211</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1028,16 +1040,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <v>181237</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1048,16 +1060,16 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>19064</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1068,16 +1080,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>252007</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1088,16 +1100,16 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>18248</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1108,16 +1120,16 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>245860</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1128,16 +1140,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>16265</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1148,16 +1160,16 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>235662</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1168,16 +1180,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>14787</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1188,16 +1200,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>220961</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1208,16 +1220,16 @@
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>14204</v>
       </c>
       <c r="F21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1228,16 +1240,16 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>202398</v>
       </c>
       <c r="F22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1248,16 +1260,16 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>40950</v>
       </c>
       <c r="F23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1268,16 +1280,16 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>183854</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1288,16 +1300,16 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>39510</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1308,16 +1320,16 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>182276</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1328,16 +1340,16 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>38197</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1348,16 +1360,16 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28">
         <v>161947</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1368,16 +1380,16 @@
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E29">
         <v>36501</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1388,16 +1400,16 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E30">
         <v>140919</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1408,16 +1420,16 @@
         <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>33363</v>
       </c>
       <c r="F31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1428,16 +1440,16 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E32">
         <v>41317</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1448,16 +1460,16 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>48202</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1468,16 +1480,16 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>37692</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1488,16 +1500,16 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>45157</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1508,16 +1520,16 @@
         <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>36712</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1528,16 +1540,16 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>44055</v>
       </c>
       <c r="F37" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1548,16 +1560,16 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E38">
         <v>28445</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1568,16 +1580,16 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <v>36719</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1588,16 +1600,16 @@
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40">
         <v>26834</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1608,16 +1620,16 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E41">
         <v>108433</v>
       </c>
       <c r="F41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1628,16 +1640,16 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>23054</v>
       </c>
       <c r="F42" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1648,16 +1660,16 @@
         <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>102354</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1668,16 +1680,16 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E44">
         <v>22491</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1688,16 +1700,16 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45">
         <v>94712</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1708,16 +1720,16 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>41712</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1728,16 +1740,16 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>92401</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1748,16 +1760,16 @@
         <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>38647</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1768,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>77055</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1788,16 +1800,16 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>37704</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1808,16 +1820,16 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>64667</v>
       </c>
       <c r="F51" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1828,16 +1840,16 @@
         <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E52">
         <v>30586</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1848,16 +1860,16 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>50804</v>
       </c>
       <c r="F53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1868,16 +1880,16 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54">
         <v>29840</v>
       </c>
       <c r="F54" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1888,16 +1900,16 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55">
         <v>45474</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1908,16 +1920,16 @@
         <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56">
         <v>27111</v>
       </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1928,16 +1940,16 @@
         <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E57">
         <v>118283</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1948,16 +1960,16 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58">
         <v>24891</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1968,16 +1980,16 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59">
         <v>109203</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1988,16 +2000,16 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60">
         <v>29612</v>
       </c>
       <c r="F60" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2008,16 +2020,16 @@
         <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E61">
         <v>105729</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2028,16 +2040,16 @@
         <v>26</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62">
         <v>23837</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2048,16 +2060,16 @@
         <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E63">
         <v>98556</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2068,16 +2080,16 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64">
         <v>22656</v>
       </c>
       <c r="F64" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2088,16 +2100,16 @@
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D65" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E65">
         <v>79061</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2108,16 +2120,16 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E66">
         <v>22032</v>
       </c>
       <c r="F66" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2128,16 +2140,16 @@
         <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E67">
         <v>67735</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2148,16 +2160,16 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E68">
         <v>41256</v>
       </c>
       <c r="F68" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2168,16 +2180,16 @@
         <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E69">
         <v>56900</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2188,16 +2200,16 @@
         <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E70">
         <v>38882</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2208,16 +2220,16 @@
         <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E71">
         <v>33466</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2228,16 +2240,16 @@
         <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E72">
         <v>52174</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2248,16 +2260,16 @@
         <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E73">
         <v>32153</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2268,16 +2280,16 @@
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E74">
         <v>49724</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2288,16 +2300,16 @@
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75">
         <v>25735</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2308,16 +2320,16 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76">
         <v>109874</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2328,16 +2340,16 @@
         <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77">
         <v>22944</v>
       </c>
       <c r="F77" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2348,16 +2360,16 @@
         <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78">
         <v>102826</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2368,16 +2380,16 @@
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79">
         <v>95690</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2388,16 +2400,16 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80">
         <v>22384</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2408,16 +2420,16 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81">
         <v>90144</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2428,16 +2440,16 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>39901</v>
       </c>
       <c r="F82" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2448,16 +2460,16 @@
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>38927</v>
       </c>
       <c r="F83" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2468,16 +2480,16 @@
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E84">
         <v>76574</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2488,16 +2500,16 @@
         <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>37977</v>
       </c>
       <c r="F85" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2508,16 +2520,16 @@
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E86">
         <v>61514</v>
       </c>
       <c r="F86" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2528,16 +2540,16 @@
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>31729</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2548,16 +2560,16 @@
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88">
         <v>52459</v>
       </c>
       <c r="F88" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2568,16 +2580,16 @@
         <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89">
         <v>28811</v>
       </c>
       <c r="F89" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2588,16 +2600,16 @@
         <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90">
         <v>47740</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2608,16 +2620,16 @@
         <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91">
         <v>41682</v>
       </c>
       <c r="F91" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2628,16 +2640,16 @@
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92">
         <v>123406</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2648,16 +2660,16 @@
         <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93">
         <v>40563</v>
       </c>
       <c r="F93" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2668,16 +2680,16 @@
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94">
         <v>116775</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2688,16 +2700,16 @@
         <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E95">
         <v>35501</v>
       </c>
       <c r="F95" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2708,16 +2720,16 @@
         <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96">
         <v>110030</v>
       </c>
       <c r="F96" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2728,16 +2740,16 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E97">
         <v>33572</v>
       </c>
       <c r="F97" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2748,16 +2760,16 @@
         <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98">
         <v>107346</v>
       </c>
       <c r="F98" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2768,16 +2780,16 @@
         <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E99">
         <v>29010</v>
       </c>
       <c r="F99" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2788,16 +2800,16 @@
         <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100">
         <v>87759</v>
       </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2808,16 +2820,16 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E101">
         <v>28302</v>
       </c>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2828,16 +2840,16 @@
         <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102">
         <v>69137</v>
       </c>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2848,16 +2860,16 @@
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E103">
         <v>27191</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2868,16 +2880,16 @@
         <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104">
         <v>60104</v>
       </c>
       <c r="F104" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2888,16 +2900,16 @@
         <v>30</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E105">
         <v>23590</v>
       </c>
       <c r="F105" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2908,16 +2920,16 @@
         <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106">
         <v>56982</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2928,16 +2940,16 @@
         <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E107">
         <v>39357</v>
       </c>
       <c r="F107" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2948,16 +2960,16 @@
         <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108">
         <v>342134</v>
       </c>
       <c r="F108" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2968,16 +2980,16 @@
         <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E109">
         <v>35268</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2988,16 +3000,16 @@
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110">
         <v>322770</v>
       </c>
       <c r="F110" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3008,16 +3020,16 @@
         <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D111" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E111">
         <v>34407</v>
       </c>
       <c r="F111" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3028,16 +3040,16 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112">
         <v>309139</v>
       </c>
       <c r="F112" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3048,16 +3060,16 @@
         <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E113">
         <v>32393</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3068,16 +3080,16 @@
         <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E114">
         <v>232606</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3088,16 +3100,16 @@
         <v>32</v>
       </c>
       <c r="C115" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E115">
         <v>25816</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3108,16 +3120,16 @@
         <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E116">
         <v>189683</v>
       </c>
       <c r="F116" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3128,16 +3140,16 @@
         <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E117">
         <v>42435</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3148,16 +3160,16 @@
         <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E118">
         <v>150899</v>
       </c>
       <c r="F118" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3168,16 +3180,16 @@
         <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E119">
         <v>17823</v>
       </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3188,16 +3200,16 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E120">
         <v>130163</v>
       </c>
       <c r="F120" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3208,16 +3220,16 @@
         <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D121" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E121">
         <v>17172</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3228,16 +3240,16 @@
         <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122">
         <v>16140</v>
       </c>
       <c r="F122" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3248,16 +3260,16 @@
         <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E123">
         <v>126225</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3268,16 +3280,16 @@
         <v>35</v>
       </c>
       <c r="C124" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E124">
         <v>15717</v>
       </c>
       <c r="F124" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3288,16 +3300,16 @@
         <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E125">
         <v>119587</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3308,16 +3320,16 @@
         <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E126">
         <v>15333</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3328,16 +3340,16 @@
         <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D127" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E127">
         <v>109379</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3348,16 +3360,16 @@
         <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E128">
         <v>14959</v>
       </c>
       <c r="F128" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3368,16 +3380,16 @@
         <v>33</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D129" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E129">
         <v>102192</v>
       </c>
       <c r="F129" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3388,16 +3400,16 @@
         <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D130" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E130">
         <v>14594</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3408,16 +3420,16 @@
         <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D131" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E131">
         <v>89010</v>
       </c>
       <c r="F131" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3428,16 +3440,16 @@
         <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E132">
         <v>12594</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3448,16 +3460,16 @@
         <v>36</v>
       </c>
       <c r="C133" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E133">
         <v>37684</v>
       </c>
       <c r="F133" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3468,16 +3480,16 @@
         <v>33</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E134">
         <v>71366</v>
       </c>
       <c r="F134" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3488,16 +3500,16 @@
         <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E135">
         <v>36764</v>
       </c>
       <c r="F135" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3508,16 +3520,16 @@
         <v>33</v>
       </c>
       <c r="C136" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E136">
         <v>66010</v>
       </c>
       <c r="F136" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3528,16 +3540,16 @@
         <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E137">
         <v>35867</v>
       </c>
       <c r="F137" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3548,16 +3560,16 @@
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D138" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E138">
         <v>34992</v>
       </c>
       <c r="F138" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3568,16 +3580,16 @@
         <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D139" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E139">
         <v>62148</v>
       </c>
       <c r="F139" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3588,16 +3600,16 @@
         <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D140" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140">
         <v>318827</v>
       </c>
       <c r="F140" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3608,16 +3620,16 @@
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E141">
         <v>34138</v>
       </c>
       <c r="F141" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3628,16 +3640,16 @@
         <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D142" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142">
         <v>295463</v>
       </c>
       <c r="F142" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3648,16 +3660,16 @@
         <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D143" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E143">
         <v>33305</v>
       </c>
       <c r="F143" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3668,16 +3680,16 @@
         <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D144" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E144">
         <v>272197</v>
       </c>
       <c r="F144" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3688,16 +3700,16 @@
         <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E145">
         <v>32160</v>
       </c>
       <c r="F145" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3708,16 +3720,16 @@
         <v>37</v>
       </c>
       <c r="C146" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D146" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E146">
         <v>218619</v>
       </c>
       <c r="F146" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3728,16 +3740,16 @@
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E147">
         <v>29661</v>
       </c>
       <c r="F147" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3748,16 +3760,16 @@
         <v>37</v>
       </c>
       <c r="C148" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D148" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E148">
         <v>182636</v>
       </c>
       <c r="F148" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3768,16 +3780,16 @@
         <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D149" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E149">
         <v>17747</v>
       </c>
       <c r="F149" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3788,16 +3800,16 @@
         <v>37</v>
       </c>
       <c r="C150" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D150" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E150">
         <v>143047</v>
       </c>
       <c r="F150" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3808,16 +3820,16 @@
         <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D151" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E151">
         <v>16745</v>
       </c>
       <c r="F151" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3828,16 +3840,16 @@
         <v>37</v>
       </c>
       <c r="C152" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D152" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E152">
         <v>127425</v>
       </c>
       <c r="F152" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3848,16 +3860,16 @@
         <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D153" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E153">
         <v>15777</v>
       </c>
       <c r="F153" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3868,16 +3880,16 @@
         <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D154" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E154">
         <v>14544</v>
       </c>
       <c r="F154" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3888,16 +3900,16 @@
         <v>37</v>
       </c>
       <c r="C155" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D155" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E155">
         <v>117058</v>
       </c>
       <c r="F155" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3908,16 +3920,16 @@
         <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D156" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E156">
         <v>14146</v>
       </c>
       <c r="F156" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3928,16 +3940,16 @@
         <v>37</v>
       </c>
       <c r="C157" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D157" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E157">
         <v>107593</v>
       </c>
       <c r="F157" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3948,16 +3960,16 @@
         <v>38</v>
       </c>
       <c r="C158" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D158" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E158">
         <v>13761</v>
       </c>
       <c r="F158" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3968,16 +3980,16 @@
         <v>37</v>
       </c>
       <c r="C159" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D159" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E159">
         <v>98963</v>
       </c>
       <c r="F159" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3988,16 +4000,16 @@
         <v>38</v>
       </c>
       <c r="C160" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D160" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E160">
         <v>12202</v>
       </c>
       <c r="F160" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4008,16 +4020,16 @@
         <v>37</v>
       </c>
       <c r="C161" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E161">
         <v>92246</v>
       </c>
       <c r="F161" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4028,16 +4040,16 @@
         <v>38</v>
       </c>
       <c r="C162" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D162" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E162">
         <v>11486</v>
       </c>
       <c r="F162" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4048,16 +4060,16 @@
         <v>37</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D163" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E163">
         <v>85723</v>
       </c>
       <c r="F163" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4068,16 +4080,16 @@
         <v>39</v>
       </c>
       <c r="C164" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D164" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E164">
         <v>19462</v>
       </c>
       <c r="F164" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4088,16 +4100,16 @@
         <v>39</v>
       </c>
       <c r="C165" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D165" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E165">
         <v>18987</v>
       </c>
       <c r="F165" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4108,16 +4120,16 @@
         <v>37</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D166" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E166">
         <v>65763</v>
       </c>
       <c r="F166" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4128,16 +4140,16 @@
         <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D167" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E167">
         <v>18523</v>
       </c>
       <c r="F167" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4148,16 +4160,16 @@
         <v>37</v>
       </c>
       <c r="C168" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D168" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E168">
         <v>57579</v>
       </c>
       <c r="F168" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4168,16 +4180,16 @@
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D169" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E169">
         <v>18071</v>
       </c>
       <c r="F169" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4188,16 +4200,16 @@
         <v>37</v>
       </c>
       <c r="C170" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D170" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E170">
         <v>54398</v>
       </c>
       <c r="F170" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4208,16 +4220,16 @@
         <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D171" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E171">
         <v>17630</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4228,16 +4240,16 @@
         <v>39</v>
       </c>
       <c r="C172" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D172" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E172">
         <v>17200</v>
       </c>
       <c r="F172" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4248,16 +4260,16 @@
         <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D173" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E173">
         <v>49740</v>
       </c>
       <c r="F173" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4268,16 +4280,16 @@
         <v>39</v>
       </c>
       <c r="C174" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D174" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E174">
         <v>16642</v>
       </c>
       <c r="F174" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4288,16 +4300,16 @@
         <v>40</v>
       </c>
       <c r="C175" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D175" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E175">
         <v>847192</v>
       </c>
       <c r="F175" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4308,16 +4320,16 @@
         <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D176" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E176">
         <v>719518</v>
       </c>
       <c r="F176" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4328,16 +4340,16 @@
         <v>39</v>
       </c>
       <c r="C177" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D177" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E177">
         <v>13994</v>
       </c>
       <c r="F177" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4348,16 +4360,16 @@
         <v>40</v>
       </c>
       <c r="C178" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D178" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E178">
         <v>667864</v>
       </c>
       <c r="F178" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4368,16 +4380,16 @@
         <v>41</v>
       </c>
       <c r="C179" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D179" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E179">
         <v>16548</v>
       </c>
       <c r="F179" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4388,16 +4400,16 @@
         <v>41</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D180" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E180">
         <v>14884</v>
       </c>
       <c r="F180" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4408,16 +4420,16 @@
         <v>40</v>
       </c>
       <c r="C181" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D181" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E181">
         <v>625121</v>
       </c>
       <c r="F181" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4428,16 +4440,16 @@
         <v>42</v>
       </c>
       <c r="C182" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D182" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E182">
         <v>395599</v>
       </c>
       <c r="F182" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4448,16 +4460,16 @@
         <v>41</v>
       </c>
       <c r="C183" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D183" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E183">
         <v>13448</v>
       </c>
       <c r="F183" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4468,16 +4480,16 @@
         <v>42</v>
       </c>
       <c r="C184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D184" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E184">
         <v>370286</v>
       </c>
       <c r="F184" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4488,16 +4500,16 @@
         <v>41</v>
       </c>
       <c r="C185" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D185" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E185">
         <v>13120</v>
       </c>
       <c r="F185" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4508,16 +4520,16 @@
         <v>43</v>
       </c>
       <c r="C186" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D186" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E186">
         <v>763015</v>
       </c>
       <c r="F186" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4528,16 +4540,16 @@
         <v>41</v>
       </c>
       <c r="C187" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D187" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E187">
         <v>12116</v>
       </c>
       <c r="F187" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4548,16 +4560,16 @@
         <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D188" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E188">
         <v>673303</v>
       </c>
       <c r="F188" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4568,16 +4580,16 @@
         <v>41</v>
       </c>
       <c r="C189" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D189" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E189">
         <v>11820</v>
       </c>
       <c r="F189" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4588,16 +4600,16 @@
         <v>43</v>
       </c>
       <c r="C190" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E190">
         <v>646378</v>
       </c>
       <c r="F190" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4608,16 +4620,16 @@
         <v>41</v>
       </c>
       <c r="C191" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D191" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E191">
         <v>11184</v>
       </c>
       <c r="F191" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4628,16 +4640,16 @@
         <v>43</v>
       </c>
       <c r="C192" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D192" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E192">
         <v>592645</v>
       </c>
       <c r="F192" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4648,16 +4660,16 @@
         <v>41</v>
       </c>
       <c r="C193" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D193" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E193">
         <v>8971</v>
       </c>
       <c r="F193" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4668,16 +4680,16 @@
         <v>44</v>
       </c>
       <c r="C194" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D194" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E194">
         <v>392676</v>
       </c>
       <c r="F194" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4688,16 +4700,16 @@
         <v>45</v>
       </c>
       <c r="C195" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D195" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E195">
         <v>19971</v>
       </c>
       <c r="F195" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4708,16 +4720,16 @@
         <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D196" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E196">
         <v>366783</v>
       </c>
       <c r="F196" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4728,16 +4740,16 @@
         <v>45</v>
       </c>
       <c r="C197" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D197" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E197">
         <v>15754</v>
       </c>
       <c r="F197" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4748,16 +4760,16 @@
         <v>46</v>
       </c>
       <c r="C198" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D198" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E198">
         <v>677328</v>
       </c>
       <c r="F198" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4768,16 +4780,16 @@
         <v>45</v>
       </c>
       <c r="C199" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D199" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E199">
         <v>14647</v>
       </c>
       <c r="F199" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4788,16 +4800,16 @@
         <v>46</v>
       </c>
       <c r="C200" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D200" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E200">
         <v>567491</v>
       </c>
       <c r="F200" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4808,16 +4820,16 @@
         <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E201">
         <v>13016</v>
       </c>
       <c r="F201" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4828,16 +4840,16 @@
         <v>46</v>
       </c>
       <c r="C202" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D202" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E202">
         <v>517631</v>
       </c>
       <c r="F202" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4848,16 +4860,16 @@
         <v>45</v>
       </c>
       <c r="C203" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D203" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E203">
         <v>12467</v>
       </c>
       <c r="F203" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4868,16 +4880,16 @@
         <v>46</v>
       </c>
       <c r="C204" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D204" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E204">
         <v>483986</v>
       </c>
       <c r="F204" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4888,16 +4900,16 @@
         <v>47</v>
       </c>
       <c r="C205" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D205" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E205">
         <v>604938</v>
       </c>
       <c r="F205" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4908,16 +4920,16 @@
         <v>45</v>
       </c>
       <c r="C206" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D206" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E206">
         <v>9650</v>
       </c>
       <c r="F206" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4928,16 +4940,16 @@
         <v>47</v>
       </c>
       <c r="C207" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D207" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E207">
         <v>515947</v>
       </c>
       <c r="F207" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4948,16 +4960,16 @@
         <v>45</v>
       </c>
       <c r="C208" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D208" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E208">
         <v>9023</v>
       </c>
       <c r="F208" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4968,16 +4980,116 @@
         <v>47</v>
       </c>
       <c r="C209" t="s">
+        <v>102</v>
+      </c>
+      <c r="D209" t="s">
+        <v>140</v>
+      </c>
+      <c r="E209">
+        <v>477381</v>
+      </c>
+      <c r="F209" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" t="s">
+        <v>141</v>
+      </c>
+      <c r="E210">
+        <v>15820</v>
+      </c>
+      <c r="F210" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
+        <v>47</v>
+      </c>
+      <c r="C211" t="s">
+        <v>103</v>
+      </c>
+      <c r="D211" t="s">
+        <v>140</v>
+      </c>
+      <c r="E211">
+        <v>446436</v>
+      </c>
+      <c r="F211" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>48</v>
+      </c>
+      <c r="C212" t="s">
+        <v>96</v>
+      </c>
+      <c r="D212" t="s">
+        <v>141</v>
+      </c>
+      <c r="E212">
+        <v>15194</v>
+      </c>
+      <c r="F212" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213" t="s">
         <v>100</v>
       </c>
-      <c r="D209" t="s">
-        <v>138</v>
-      </c>
-      <c r="E209" t="s">
-        <v>139</v>
-      </c>
-      <c r="F209" t="s">
-        <v>140</v>
+      <c r="D213" t="s">
+        <v>142</v>
+      </c>
+      <c r="E213">
+        <v>635988</v>
+      </c>
+      <c r="F213" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>48</v>
+      </c>
+      <c r="C214" t="s">
+        <v>97</v>
+      </c>
+      <c r="D214" t="s">
+        <v>141</v>
+      </c>
+      <c r="E214" t="s">
+        <v>143</v>
+      </c>
+      <c r="F214" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
